--- a/wikigen/fhirmapping-3-2.xlsx
+++ b/wikigen/fhirmapping-3-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\geboortezorg-nictiz\wikigen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59470558-6C02-4505-ABED-A2D326D4323B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E7D35F6-3999-4ECB-A5A3-DE4C5CCD71C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15555" xr2:uid="{8D652A7D-74B2-453C-89CC-2E9F9A48069F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{8D652A7D-74B2-453C-89CC-2E9F9A48069F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -8965,7 +8965,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C176D889-84F0-4847-9EBB-20EF389E24E7}" name="Table1" displayName="Table1" ref="A1:G1474" tableType="xml" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7" connectionId="3">
-  <autoFilter ref="A1:G1474" xr:uid="{86C5DC03-DD02-4C4B-8A9E-0B5950C9C34F}"/>
+  <autoFilter ref="A1:G1474" xr:uid="{86C5DC03-DD02-4C4B-8A9E-0B5950C9C34F}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="3" xr3:uid="{EB16DB1E-B53A-44DA-9D6C-ABD15C06B9A4}" uniqueName="Naam" name="Naam" dataDxfId="6">
       <xmlColumnPr mapId="3" xpath="/data-set/record/Naam" xmlDataType="string"/>
@@ -9290,8 +9296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC02A41-B60C-492C-9588-E5F1E893C8C1}">
   <dimension ref="A1:G1474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1450" workbookViewId="0">
-      <selection activeCell="E1475" sqref="E1475"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="N1468" sqref="N1468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9328,7 +9334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -9347,7 +9353,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -9389,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -9412,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -9458,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -9481,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -9504,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
@@ -9550,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -9619,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
@@ -9688,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -9709,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -9755,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
@@ -9778,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
@@ -9801,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -9824,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>69</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
@@ -9870,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>75</v>
       </c>
@@ -9893,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
@@ -9916,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>81</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -9962,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>87</v>
       </c>
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
@@ -10008,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>93</v>
       </c>
@@ -10031,7 +10037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>96</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>99</v>
       </c>
@@ -10077,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -10100,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>105</v>
       </c>
@@ -10123,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>108</v>
       </c>
@@ -10146,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>111</v>
       </c>
@@ -10167,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
@@ -10190,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
@@ -10211,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
@@ -10234,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>123</v>
       </c>
@@ -10255,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>34</v>
       </c>
@@ -10299,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
@@ -10364,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>138</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>140</v>
       </c>
@@ -10406,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>142</v>
       </c>
@@ -10429,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>145</v>
       </c>
@@ -10452,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>148</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>151</v>
       </c>
@@ -10498,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>154</v>
       </c>
@@ -10521,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>157</v>
       </c>
@@ -10544,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>160</v>
       </c>
@@ -10567,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>163</v>
       </c>
@@ -10590,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>166</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>169</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>142</v>
       </c>
@@ -10657,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>145</v>
       </c>
@@ -10680,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>151</v>
       </c>
@@ -10726,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>154</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>157</v>
       </c>
@@ -10772,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>160</v>
       </c>
@@ -10795,7 +10801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>163</v>
       </c>
@@ -10818,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>166</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>189</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>142</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>145</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>148</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>151</v>
       </c>
@@ -10954,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>154</v>
       </c>
@@ -10977,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>157</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>160</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>163</v>
       </c>
@@ -11046,7 +11052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>166</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>210</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>214</v>
       </c>
@@ -11113,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>217</v>
       </c>
@@ -11136,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>220</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>223</v>
       </c>
@@ -11180,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>142</v>
       </c>
@@ -11203,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>145</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>148</v>
       </c>
@@ -11249,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>151</v>
       </c>
@@ -11272,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>154</v>
       </c>
@@ -11295,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>157</v>
       </c>
@@ -11318,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>160</v>
       </c>
@@ -11341,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>163</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>166</v>
       </c>
@@ -11387,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>243</v>
       </c>
@@ -11408,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>142</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>145</v>
       </c>
@@ -11454,7 +11460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>148</v>
       </c>
@@ -11477,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>151</v>
       </c>
@@ -11500,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>154</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>157</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>160</v>
       </c>
@@ -11569,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>163</v>
       </c>
@@ -11592,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>166</v>
       </c>
@@ -11615,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>263</v>
       </c>
@@ -11638,7 +11644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>266</v>
       </c>
@@ -11659,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>138</v>
       </c>
@@ -11680,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>270</v>
       </c>
@@ -11701,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>272</v>
       </c>
@@ -11724,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>275</v>
       </c>
@@ -11747,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>278</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>281</v>
       </c>
@@ -11793,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>284</v>
       </c>
@@ -11816,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>140</v>
       </c>
@@ -11931,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
@@ -11954,7 +11960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>126</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>305</v>
       </c>
@@ -12000,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>119</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>310</v>
       </c>
@@ -12046,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>119</v>
       </c>
@@ -12069,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>316</v>
       </c>
@@ -12090,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>272</v>
       </c>
@@ -12113,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>275</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>278</v>
       </c>
@@ -12159,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>281</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>284</v>
       </c>
@@ -12205,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>135</v>
       </c>
@@ -12228,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>189</v>
       </c>
@@ -12343,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>123</v>
       </c>
@@ -12366,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>126</v>
       </c>
@@ -12389,7 +12395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>126</v>
       </c>
@@ -12412,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>305</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>119</v>
       </c>
@@ -12458,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>119</v>
       </c>
@@ -12481,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>310</v>
       </c>
@@ -12504,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>119</v>
       </c>
@@ -12527,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>119</v>
       </c>
@@ -12550,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>359</v>
       </c>
@@ -12573,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>214</v>
       </c>
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>363</v>
       </c>
@@ -12617,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>366</v>
       </c>
@@ -12640,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>369</v>
       </c>
@@ -12663,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>372</v>
       </c>
@@ -12686,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>375</v>
       </c>
@@ -12709,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>378</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>381</v>
       </c>
@@ -12751,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>383</v>
       </c>
@@ -12774,7 +12780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>386</v>
       </c>
@@ -12797,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>389</v>
       </c>
@@ -12820,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>392</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>395</v>
       </c>
@@ -12866,7 +12872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>398</v>
       </c>
@@ -12889,7 +12895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>401</v>
       </c>
@@ -12912,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>404</v>
       </c>
@@ -12935,7 +12941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>407</v>
       </c>
@@ -12958,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>410</v>
       </c>
@@ -12981,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>87</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>90</v>
       </c>
@@ -13025,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>93</v>
       </c>
@@ -13048,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>96</v>
       </c>
@@ -13071,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>99</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>102</v>
       </c>
@@ -13117,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>105</v>
       </c>
@@ -13140,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>108</v>
       </c>
@@ -13163,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>52</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>54</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>57</v>
       </c>
@@ -13230,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>60</v>
       </c>
@@ -13253,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>63</v>
       </c>
@@ -13276,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>66</v>
       </c>
@@ -13299,7 +13305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>69</v>
       </c>
@@ -13322,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>72</v>
       </c>
@@ -13345,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>75</v>
       </c>
@@ -13368,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>78</v>
       </c>
@@ -13414,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>84</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>433</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>436</v>
       </c>
@@ -13481,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>438</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>381</v>
       </c>
@@ -13523,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>383</v>
       </c>
@@ -13546,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>386</v>
       </c>
@@ -13569,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>389</v>
       </c>
@@ -13592,7 +13598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>392</v>
       </c>
@@ -13615,7 +13621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>395</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>398</v>
       </c>
@@ -13661,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>401</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>404</v>
       </c>
@@ -13707,7 +13713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>407</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>410</v>
       </c>
@@ -13753,7 +13759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -13774,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>54</v>
       </c>
@@ -13797,7 +13803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>57</v>
       </c>
@@ -13820,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>60</v>
       </c>
@@ -13843,7 +13849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>63</v>
       </c>
@@ -13866,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>66</v>
       </c>
@@ -13889,7 +13895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>69</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>72</v>
       </c>
@@ -13935,7 +13941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>75</v>
       </c>
@@ -13958,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>78</v>
       </c>
@@ -14004,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>84</v>
       </c>
@@ -14027,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>87</v>
       </c>
@@ -14048,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>90</v>
       </c>
@@ -14071,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>93</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>96</v>
       </c>
@@ -14117,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>99</v>
       </c>
@@ -14140,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>102</v>
       </c>
@@ -14163,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>105</v>
       </c>
@@ -14186,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>108</v>
       </c>
@@ -14209,7 +14215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>472</v>
       </c>
@@ -14230,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>474</v>
       </c>
@@ -14251,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>476</v>
       </c>
@@ -14272,7 +14278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>478</v>
       </c>
@@ -14293,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>480</v>
       </c>
@@ -14314,7 +14320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>482</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>126</v>
       </c>
@@ -14356,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>484</v>
       </c>
@@ -14377,7 +14383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>46</v>
       </c>
@@ -14442,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>87</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>90</v>
       </c>
@@ -14486,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>93</v>
       </c>
@@ -14509,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>96</v>
       </c>
@@ -14532,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>99</v>
       </c>
@@ -14555,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>102</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>105</v>
       </c>
@@ -14601,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>108</v>
       </c>
@@ -14624,7 +14630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>52</v>
       </c>
@@ -14645,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>54</v>
       </c>
@@ -14668,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>57</v>
       </c>
@@ -14691,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>60</v>
       </c>
@@ -14714,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>63</v>
       </c>
@@ -14737,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>66</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>69</v>
       </c>
@@ -14783,7 +14789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>72</v>
       </c>
@@ -14806,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>75</v>
       </c>
@@ -14829,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>78</v>
       </c>
@@ -14875,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>84</v>
       </c>
@@ -14898,7 +14904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>512</v>
       </c>
@@ -14919,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>119</v>
       </c>
@@ -14940,7 +14946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>514</v>
       </c>
@@ -14961,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>381</v>
       </c>
@@ -14982,7 +14988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>383</v>
       </c>
@@ -15005,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>386</v>
       </c>
@@ -15028,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>389</v>
       </c>
@@ -15051,7 +15057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>392</v>
       </c>
@@ -15074,7 +15080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>395</v>
       </c>
@@ -15097,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>398</v>
       </c>
@@ -15120,7 +15126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>401</v>
       </c>
@@ -15143,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>404</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>407</v>
       </c>
@@ -15189,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>410</v>
       </c>
@@ -15212,7 +15218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>527</v>
       </c>
@@ -15233,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>52</v>
       </c>
@@ -15256,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>54</v>
       </c>
@@ -15279,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>57</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>60</v>
       </c>
@@ -15325,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>63</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>66</v>
       </c>
@@ -15371,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>69</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>72</v>
       </c>
@@ -15417,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>75</v>
       </c>
@@ -15440,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>78</v>
       </c>
@@ -15486,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>84</v>
       </c>
@@ -15509,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>87</v>
       </c>
@@ -15530,7 +15536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>90</v>
       </c>
@@ -15553,7 +15559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>93</v>
       </c>
@@ -15576,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>96</v>
       </c>
@@ -15599,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>99</v>
       </c>
@@ -15622,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>102</v>
       </c>
@@ -15645,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>105</v>
       </c>
@@ -15668,7 +15674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>108</v>
       </c>
@@ -15691,7 +15697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>126</v>
       </c>
@@ -15714,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>552</v>
       </c>
@@ -15754,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>556</v>
       </c>
@@ -15775,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>559</v>
       </c>
@@ -15796,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>561</v>
       </c>
@@ -15817,7 +15823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>563</v>
       </c>
@@ -15838,7 +15844,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>565</v>
       </c>
@@ -15859,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>567</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>569</v>
       </c>
@@ -15901,7 +15907,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>571</v>
       </c>
@@ -15922,7 +15928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>438</v>
       </c>
@@ -15945,7 +15951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>378</v>
       </c>
@@ -15968,7 +15974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>575</v>
       </c>
@@ -15989,7 +15995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>578</v>
       </c>
@@ -16010,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>580</v>
       </c>
@@ -16031,7 +16037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>582</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>126</v>
       </c>
@@ -16075,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>119</v>
       </c>
@@ -16371,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>615</v>
       </c>
@@ -16392,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>618</v>
       </c>
@@ -16413,7 +16419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>620</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>622</v>
       </c>
@@ -16455,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>135</v>
       </c>
@@ -16476,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>625</v>
       </c>
@@ -16497,7 +16503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>627</v>
       </c>
@@ -16518,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>629</v>
       </c>
@@ -16539,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>119</v>
       </c>
@@ -16562,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>632</v>
       </c>
@@ -16583,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>634</v>
       </c>
@@ -16604,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>636</v>
       </c>
@@ -16625,7 +16631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>638</v>
       </c>
@@ -16667,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>641</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>644</v>
       </c>
@@ -16709,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>135</v>
       </c>
@@ -16732,7 +16738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>647</v>
       </c>
@@ -16753,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>438</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>378</v>
       </c>
@@ -16799,7 +16805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>119</v>
       </c>
@@ -16822,7 +16828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>652</v>
       </c>
@@ -16845,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="10" t="s">
         <v>655</v>
       </c>
@@ -16866,7 +16872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>658</v>
       </c>
@@ -16887,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>438</v>
       </c>
@@ -16910,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>661</v>
       </c>
@@ -16931,7 +16937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>378</v>
       </c>
@@ -16954,7 +16960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>474</v>
       </c>
@@ -16998,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>668</v>
       </c>
@@ -17019,7 +17025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>671</v>
       </c>
@@ -17042,7 +17048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>674</v>
       </c>
@@ -17065,7 +17071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>677</v>
       </c>
@@ -17088,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>680</v>
       </c>
@@ -17111,7 +17117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>683</v>
       </c>
@@ -17134,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>214</v>
       </c>
@@ -17157,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>474</v>
       </c>
@@ -17180,7 +17186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>690</v>
       </c>
@@ -17203,7 +17209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>166</v>
       </c>
@@ -17226,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>695</v>
       </c>
@@ -17247,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>166</v>
       </c>
@@ -17270,7 +17276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>700</v>
       </c>
@@ -17293,7 +17299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>665</v>
       </c>
@@ -17314,7 +17320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>703</v>
       </c>
@@ -17356,7 +17362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>706</v>
       </c>
@@ -17377,7 +17383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>708</v>
       </c>
@@ -17400,7 +17406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>711</v>
       </c>
@@ -17574,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>728</v>
       </c>
@@ -17595,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>575</v>
       </c>
@@ -17618,7 +17624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>578</v>
       </c>
@@ -17641,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>580</v>
       </c>
@@ -17664,7 +17670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>582</v>
       </c>
@@ -17687,7 +17693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>739</v>
       </c>
@@ -17708,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>741</v>
       </c>
@@ -17731,7 +17737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>744</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>625</v>
       </c>
@@ -17777,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>627</v>
       </c>
@@ -17800,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>166</v>
       </c>
@@ -17823,7 +17829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>753</v>
       </c>
@@ -17846,7 +17852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>753</v>
       </c>
@@ -17869,7 +17875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
         <v>758</v>
       </c>
@@ -17890,7 +17896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
         <v>760</v>
       </c>
@@ -17911,7 +17917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
         <v>119</v>
       </c>
@@ -17934,7 +17940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>763</v>
       </c>
@@ -17955,7 +17961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>126</v>
       </c>
@@ -17999,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
         <v>119</v>
       </c>
@@ -18022,7 +18028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="7" t="s">
         <v>769</v>
       </c>
@@ -18043,7 +18049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>140</v>
       </c>
@@ -18066,7 +18072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>189</v>
       </c>
@@ -18089,7 +18095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>210</v>
       </c>
@@ -18112,7 +18118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="7" t="s">
         <v>777</v>
       </c>
@@ -18133,7 +18139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
         <v>119</v>
       </c>
@@ -18156,7 +18162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="7" t="s">
         <v>769</v>
       </c>
@@ -18177,7 +18183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
         <v>135</v>
       </c>
@@ -18198,7 +18204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>142</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>145</v>
       </c>
@@ -18244,7 +18250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>148</v>
       </c>
@@ -18267,7 +18273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>151</v>
       </c>
@@ -18290,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>154</v>
       </c>
@@ -18313,7 +18319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>157</v>
       </c>
@@ -18336,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>160</v>
       </c>
@@ -18359,7 +18365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>163</v>
       </c>
@@ -18382,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>166</v>
       </c>
@@ -18468,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>140</v>
       </c>
@@ -18489,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>142</v>
       </c>
@@ -18512,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>145</v>
       </c>
@@ -18535,7 +18541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>148</v>
       </c>
@@ -18558,7 +18564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>151</v>
       </c>
@@ -18579,7 +18585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>154</v>
       </c>
@@ -18602,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>157</v>
       </c>
@@ -18625,7 +18631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>160</v>
       </c>
@@ -18648,7 +18654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>163</v>
       </c>
@@ -18671,7 +18677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>166</v>
       </c>
@@ -18694,7 +18700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>270</v>
       </c>
@@ -18715,7 +18721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>272</v>
       </c>
@@ -18738,7 +18744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>275</v>
       </c>
@@ -18761,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>278</v>
       </c>
@@ -18784,7 +18790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>281</v>
       </c>
@@ -18807,7 +18813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>284</v>
       </c>
@@ -18828,7 +18834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>140</v>
       </c>
@@ -18851,7 +18857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>135</v>
       </c>
@@ -18874,7 +18880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>289</v>
       </c>
@@ -18895,7 +18901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>292</v>
       </c>
@@ -18916,7 +18922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>296</v>
       </c>
@@ -18939,7 +18945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>296</v>
       </c>
@@ -18962,7 +18968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>123</v>
       </c>
@@ -18985,7 +18991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>126</v>
       </c>
@@ -19008,7 +19014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>305</v>
       </c>
@@ -19031,7 +19037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>119</v>
       </c>
@@ -19054,7 +19060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="7" t="s">
         <v>310</v>
       </c>
@@ -19077,7 +19083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
         <v>119</v>
       </c>
@@ -19142,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>828</v>
       </c>
@@ -19163,7 +19169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>148</v>
       </c>
@@ -19186,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>151</v>
       </c>
@@ -19207,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
         <v>154</v>
       </c>
@@ -19230,7 +19236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="7" t="s">
         <v>157</v>
       </c>
@@ -19253,7 +19259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
         <v>160</v>
       </c>
@@ -19276,7 +19282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
         <v>163</v>
       </c>
@@ -19299,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>166</v>
       </c>
@@ -19322,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>830</v>
       </c>
@@ -19343,7 +19349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
         <v>148</v>
       </c>
@@ -19366,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
         <v>151</v>
       </c>
@@ -19387,7 +19393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>154</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>157</v>
       </c>
@@ -19433,7 +19439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>160</v>
       </c>
@@ -19456,7 +19462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>163</v>
       </c>
@@ -19479,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>166</v>
       </c>
@@ -19502,7 +19508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
         <v>839</v>
       </c>
@@ -19523,7 +19529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
         <v>148</v>
       </c>
@@ -19546,7 +19552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
         <v>151</v>
       </c>
@@ -19567,7 +19573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>154</v>
       </c>
@@ -19590,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>157</v>
       </c>
@@ -19613,7 +19619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>160</v>
       </c>
@@ -19636,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>163</v>
       </c>
@@ -19659,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="7" t="s">
         <v>166</v>
       </c>
@@ -19728,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>855</v>
       </c>
@@ -19818,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>866</v>
       </c>
@@ -19839,7 +19845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>869</v>
       </c>
@@ -20139,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>119</v>
       </c>
@@ -20160,7 +20166,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
         <v>900</v>
       </c>
@@ -20179,7 +20185,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
         <v>902</v>
       </c>
@@ -20198,7 +20204,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
         <v>904</v>
       </c>
@@ -20217,7 +20223,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>166</v>
       </c>
@@ -20236,7 +20242,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>907</v>
       </c>
@@ -20257,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>910</v>
       </c>
@@ -20280,7 +20286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>119</v>
       </c>
@@ -20303,7 +20309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>915</v>
       </c>
@@ -20324,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>917</v>
       </c>
@@ -20347,7 +20353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>920</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>923</v>
       </c>
@@ -20391,7 +20397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>652</v>
       </c>
@@ -20414,7 +20420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>926</v>
       </c>
@@ -20437,7 +20443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
         <v>929</v>
       </c>
@@ -20460,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
         <v>932</v>
       </c>
@@ -20483,7 +20489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>935</v>
       </c>
@@ -20506,7 +20512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>938</v>
       </c>
@@ -20529,7 +20535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>166</v>
       </c>
@@ -20552,7 +20558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>943</v>
       </c>
@@ -20573,7 +20579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>946</v>
       </c>
@@ -20596,7 +20602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="7" t="s">
         <v>950</v>
       </c>
@@ -20619,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>954</v>
       </c>
@@ -20768,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>971</v>
       </c>
@@ -20791,7 +20797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
         <v>974</v>
       </c>
@@ -20814,7 +20820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
         <v>977</v>
       </c>
@@ -21051,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="10" t="s">
         <v>998</v>
       </c>
@@ -21072,7 +21078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>1001</v>
       </c>
@@ -21093,7 +21099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>1004</v>
       </c>
@@ -21114,7 +21120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>552</v>
       </c>
@@ -21137,7 +21143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>514</v>
       </c>
@@ -21160,7 +21166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>381</v>
       </c>
@@ -21183,7 +21189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>1011</v>
       </c>
@@ -21204,7 +21210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>1013</v>
       </c>
@@ -21225,7 +21231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>1016</v>
       </c>
@@ -21246,7 +21252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>1019</v>
       </c>
@@ -21267,7 +21273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>166</v>
       </c>
@@ -21290,7 +21296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>1024</v>
       </c>
@@ -21311,7 +21317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>1027</v>
       </c>
@@ -21353,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>1031</v>
       </c>
@@ -21374,7 +21380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>1033</v>
       </c>
@@ -21397,7 +21403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>1037</v>
       </c>
@@ -21418,7 +21424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>1040</v>
       </c>
@@ -21439,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>1042</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>987</v>
       </c>
@@ -21481,7 +21487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>1045</v>
       </c>
@@ -21777,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>1064</v>
       </c>
@@ -21798,7 +21804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>987</v>
       </c>
@@ -21819,7 +21825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>1067</v>
       </c>
@@ -21861,7 +21867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>166</v>
       </c>
@@ -22113,7 +22119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>987</v>
       </c>
@@ -22134,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>1088</v>
       </c>
@@ -22155,7 +22161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>1090</v>
       </c>
@@ -22474,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="7" t="s">
         <v>1117</v>
       </c>
@@ -22495,7 +22501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
         <v>1119</v>
       </c>
@@ -22516,7 +22522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>34</v>
       </c>
@@ -22539,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>119</v>
       </c>
@@ -22560,7 +22566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
         <v>381</v>
       </c>
@@ -22583,7 +22589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="7" t="s">
         <v>527</v>
       </c>
@@ -22606,7 +22612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="7" t="s">
         <v>1013</v>
       </c>
@@ -22629,7 +22635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="7" t="s">
         <v>1127</v>
       </c>
@@ -22650,7 +22656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
         <v>987</v>
       </c>
@@ -22671,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>1130</v>
       </c>
@@ -22692,7 +22698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>995</v>
       </c>
@@ -22713,7 +22719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>166</v>
       </c>
@@ -22780,7 +22786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>1136</v>
       </c>
@@ -22801,7 +22807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>166</v>
       </c>
@@ -22824,7 +22830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>1141</v>
       </c>
@@ -22845,7 +22851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>1143</v>
       </c>
@@ -22866,7 +22872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>1145</v>
       </c>
@@ -22889,7 +22895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>1148</v>
       </c>
@@ -22912,7 +22918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>1151</v>
       </c>
@@ -22933,7 +22939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>1153</v>
       </c>
@@ -22954,7 +22960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>1143</v>
       </c>
@@ -22977,7 +22983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>1145</v>
       </c>
@@ -23000,7 +23006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>1148</v>
       </c>
@@ -23023,7 +23029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>1151</v>
       </c>
@@ -23046,7 +23052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="7" t="s">
         <v>166</v>
       </c>
@@ -23069,7 +23075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
         <v>1166</v>
       </c>
@@ -23090,7 +23096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>1168</v>
       </c>
@@ -23111,7 +23117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>1170</v>
       </c>
@@ -23134,7 +23140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>1173</v>
       </c>
@@ -23155,7 +23161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>166</v>
       </c>
@@ -23178,7 +23184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>1178</v>
       </c>
@@ -23199,7 +23205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>1180</v>
       </c>
@@ -23220,7 +23226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>1143</v>
       </c>
@@ -23241,7 +23247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>1145</v>
       </c>
@@ -23264,7 +23270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>1148</v>
       </c>
@@ -23287,7 +23293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>1151</v>
       </c>
@@ -23308,7 +23314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>1188</v>
       </c>
@@ -23331,7 +23337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>1191</v>
       </c>
@@ -23499,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>1207</v>
       </c>
@@ -23520,7 +23526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>1210</v>
       </c>
@@ -23541,7 +23547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>1212</v>
       </c>
@@ -23562,7 +23568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>1214</v>
       </c>
@@ -23583,7 +23589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>166</v>
       </c>
@@ -23965,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>189</v>
       </c>
@@ -23986,7 +23992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>142</v>
       </c>
@@ -24009,7 +24015,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>145</v>
       </c>
@@ -24032,7 +24038,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>148</v>
       </c>
@@ -24055,7 +24061,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>151</v>
       </c>
@@ -24076,7 +24082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>154</v>
       </c>
@@ -24099,7 +24105,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>157</v>
       </c>
@@ -24122,7 +24128,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>160</v>
       </c>
@@ -24145,7 +24151,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>163</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>166</v>
       </c>
@@ -24191,7 +24197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>266</v>
       </c>
@@ -24212,7 +24218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>272</v>
       </c>
@@ -24235,7 +24241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>275</v>
       </c>
@@ -24258,7 +24264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>278</v>
       </c>
@@ -24281,7 +24287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>281</v>
       </c>
@@ -24304,7 +24310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>284</v>
       </c>
@@ -24325,7 +24331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>189</v>
       </c>
@@ -24348,7 +24354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>289</v>
       </c>
@@ -24369,7 +24375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>292</v>
       </c>
@@ -24392,7 +24398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>296</v>
       </c>
@@ -24413,7 +24419,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>296</v>
       </c>
@@ -24434,7 +24440,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>123</v>
       </c>
@@ -24455,7 +24461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>126</v>
       </c>
@@ -24478,7 +24484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>305</v>
       </c>
@@ -24499,7 +24505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>119</v>
       </c>
@@ -24522,7 +24528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>310</v>
       </c>
@@ -24543,7 +24549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>119</v>
       </c>
@@ -24566,7 +24572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>1250</v>
       </c>
@@ -24587,7 +24593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>480</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>482</v>
       </c>
@@ -24654,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="10" t="s">
         <v>1256</v>
       </c>
@@ -24698,7 +24704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="10" t="s">
         <v>1260</v>
       </c>
@@ -24738,7 +24744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>1265</v>
       </c>
@@ -24759,7 +24765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>1268</v>
       </c>
@@ -24780,7 +24786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>1270</v>
       </c>
@@ -24801,7 +24807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>1273</v>
       </c>
@@ -24822,7 +24828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>210</v>
       </c>
@@ -24843,7 +24849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>142</v>
       </c>
@@ -24864,7 +24870,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>145</v>
       </c>
@@ -24885,7 +24891,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>148</v>
       </c>
@@ -24908,7 +24914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>151</v>
       </c>
@@ -24929,7 +24935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="7" t="s">
         <v>154</v>
       </c>
@@ -24952,7 +24958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>157</v>
       </c>
@@ -24975,7 +24981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>160</v>
       </c>
@@ -25021,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>166</v>
       </c>
@@ -25044,7 +25050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" s="7" t="s">
         <v>359</v>
       </c>
@@ -25065,7 +25071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>272</v>
       </c>
@@ -25088,7 +25094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>275</v>
       </c>
@@ -25111,7 +25117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>278</v>
       </c>
@@ -25134,7 +25140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>281</v>
       </c>
@@ -25157,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>284</v>
       </c>
@@ -25178,7 +25184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>210</v>
       </c>
@@ -25201,7 +25207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>289</v>
       </c>
@@ -25222,7 +25228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>292</v>
       </c>
@@ -25245,7 +25251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>296</v>
       </c>
@@ -25268,7 +25274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>296</v>
       </c>
@@ -25291,7 +25297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>123</v>
       </c>
@@ -25314,7 +25320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>126</v>
       </c>
@@ -25337,7 +25343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>305</v>
       </c>
@@ -25360,7 +25366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>119</v>
       </c>
@@ -25383,7 +25389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>310</v>
       </c>
@@ -25406,7 +25412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>119</v>
       </c>
@@ -25429,7 +25435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>1302</v>
       </c>
@@ -25448,7 +25454,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>1304</v>
       </c>
@@ -25469,7 +25475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>1306</v>
       </c>
@@ -25511,7 +25517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>1310</v>
       </c>
@@ -25532,7 +25538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>210</v>
       </c>
@@ -25555,7 +25561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>359</v>
       </c>
@@ -25578,7 +25584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>217</v>
       </c>
@@ -25599,7 +25605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>142</v>
       </c>
@@ -25622,7 +25628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>145</v>
       </c>
@@ -25645,7 +25651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>148</v>
       </c>
@@ -25668,7 +25674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>151</v>
       </c>
@@ -25689,7 +25695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>154</v>
       </c>
@@ -25712,7 +25718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>157</v>
       </c>
@@ -25735,7 +25741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>160</v>
       </c>
@@ -25781,7 +25787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>166</v>
       </c>
@@ -25804,7 +25810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>363</v>
       </c>
@@ -25825,7 +25831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>272</v>
       </c>
@@ -25848,7 +25854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>275</v>
       </c>
@@ -25871,7 +25877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>278</v>
       </c>
@@ -25894,7 +25900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>281</v>
       </c>
@@ -25917,7 +25923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>284</v>
       </c>
@@ -25938,7 +25944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>217</v>
       </c>
@@ -25961,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>289</v>
       </c>
@@ -25982,7 +25988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>292</v>
       </c>
@@ -26005,7 +26011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>296</v>
       </c>
@@ -26028,7 +26034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>296</v>
       </c>
@@ -26051,7 +26057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>123</v>
       </c>
@@ -26074,7 +26080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>126</v>
       </c>
@@ -26097,7 +26103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>305</v>
       </c>
@@ -26120,7 +26126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>119</v>
       </c>
@@ -26143,7 +26149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>310</v>
       </c>
@@ -26166,7 +26172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="7" t="s">
         <v>119</v>
       </c>
@@ -26189,7 +26195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="7" t="s">
         <v>1339</v>
       </c>
@@ -26210,7 +26216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>119</v>
       </c>
@@ -26233,7 +26239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="7" t="s">
         <v>1343</v>
       </c>
@@ -26254,7 +26260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>119</v>
       </c>
@@ -26277,7 +26283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>1347</v>
       </c>
@@ -26298,7 +26304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>1349</v>
       </c>
@@ -26319,7 +26325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>1351</v>
       </c>
@@ -26340,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>126</v>
       </c>
@@ -26363,7 +26369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>1354</v>
       </c>
@@ -26384,7 +26390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>1356</v>
       </c>
@@ -26405,7 +26411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>1358</v>
       </c>
@@ -26426,7 +26432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>1360</v>
       </c>
@@ -26445,7 +26451,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>1362</v>
       </c>
@@ -26466,7 +26472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>1364</v>
       </c>
@@ -26487,7 +26493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>210</v>
       </c>
@@ -26510,7 +26516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>359</v>
       </c>
@@ -26533,7 +26539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="10" t="s">
         <v>1368</v>
       </c>
@@ -26554,7 +26560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>658</v>
       </c>
@@ -26575,7 +26581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>438</v>
       </c>
@@ -26598,7 +26604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>1373</v>
       </c>
@@ -26640,7 +26646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>378</v>
       </c>
@@ -26663,7 +26669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>1379</v>
       </c>
@@ -26684,7 +26690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>1382</v>
       </c>
@@ -26707,7 +26713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>1385</v>
       </c>
@@ -26730,7 +26736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>378</v>
       </c>
@@ -26753,7 +26759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>214</v>
       </c>
@@ -26776,7 +26782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>214</v>
       </c>
@@ -26799,7 +26805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>378</v>
       </c>
@@ -26822,7 +26828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>1396</v>
       </c>
@@ -26868,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>1402</v>
       </c>
@@ -26891,7 +26897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>1402</v>
       </c>
@@ -26914,7 +26920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>378</v>
       </c>
@@ -26937,7 +26943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>1409</v>
       </c>
@@ -26960,7 +26966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>166</v>
       </c>
@@ -27109,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>1421</v>
       </c>
@@ -27130,7 +27136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>54</v>
       </c>
@@ -27151,7 +27157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>57</v>
       </c>
@@ -27172,7 +27178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>60</v>
       </c>
@@ -27195,7 +27201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>63</v>
       </c>
@@ -27218,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>66</v>
       </c>
@@ -27241,7 +27247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>69</v>
       </c>
@@ -27262,7 +27268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>72</v>
       </c>
@@ -27285,7 +27291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>75</v>
       </c>
@@ -27306,7 +27312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>81</v>
       </c>
@@ -27329,7 +27335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>1432</v>
       </c>
@@ -27350,7 +27356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>987</v>
       </c>
@@ -27371,7 +27377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>1436</v>
       </c>
@@ -27392,7 +27398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>1438</v>
       </c>
@@ -27413,7 +27419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>1440</v>
       </c>
@@ -27434,7 +27440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>1442</v>
       </c>
@@ -27455,7 +27461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>166</v>
       </c>
@@ -27495,7 +27501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>1447</v>
       </c>
@@ -27516,7 +27522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>1449</v>
       </c>
@@ -27537,7 +27543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="7" t="s">
         <v>1451</v>
       </c>
@@ -27558,7 +27564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="7" t="s">
         <v>166</v>
       </c>
@@ -27581,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>1455</v>
       </c>
@@ -27627,7 +27633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="7" t="s">
         <v>954</v>
       </c>
@@ -27648,7 +27654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>1462</v>
       </c>
@@ -27669,7 +27675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>1464</v>
       </c>
@@ -27692,7 +27698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>166</v>
       </c>
@@ -27713,7 +27719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>1468</v>
       </c>
@@ -27734,7 +27740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>1471</v>
       </c>
@@ -27755,7 +27761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>166</v>
       </c>
@@ -27778,7 +27784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>1475</v>
       </c>
@@ -27799,7 +27805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>1477</v>
       </c>
@@ -27822,7 +27828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>1480</v>
       </c>
@@ -27843,7 +27849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>1482</v>
       </c>
@@ -27864,7 +27870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>1484</v>
       </c>
@@ -27885,7 +27891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>1487</v>
       </c>
@@ -27908,7 +27914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>1490</v>
       </c>
@@ -27929,7 +27935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
         <v>1492</v>
       </c>
@@ -27952,7 +27958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="7" t="s">
         <v>1495</v>
       </c>
@@ -27975,7 +27981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="7" t="s">
         <v>1498</v>
       </c>
@@ -27998,7 +28004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
         <v>1501</v>
       </c>
@@ -28021,7 +28027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
         <v>1504</v>
       </c>
@@ -28044,7 +28050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
         <v>166</v>
       </c>
@@ -31063,7 +31069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>135</v>
       </c>
@@ -31086,7 +31092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>289</v>
       </c>
@@ -31107,7 +31113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>292</v>
       </c>
@@ -31130,7 +31136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>296</v>
       </c>
@@ -31153,7 +31159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>296</v>
       </c>
@@ -31176,7 +31182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>123</v>
       </c>
@@ -31199,7 +31205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>126</v>
       </c>
@@ -31222,7 +31228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>305</v>
       </c>
@@ -31245,7 +31251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>119</v>
       </c>
@@ -31268,7 +31274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
         <v>310</v>
       </c>
@@ -31291,7 +31297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" s="7" t="s">
         <v>119</v>
       </c>
@@ -31314,7 +31320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" s="7" t="s">
         <v>1709</v>
       </c>
@@ -31335,7 +31341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" s="7" t="s">
         <v>220</v>
       </c>
@@ -31356,7 +31362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="7" t="s">
         <v>142</v>
       </c>
@@ -31379,7 +31385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="7" t="s">
         <v>145</v>
       </c>
@@ -31402,7 +31408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="7" t="s">
         <v>148</v>
       </c>
@@ -31446,7 +31452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="7" t="s">
         <v>154</v>
       </c>
@@ -31469,7 +31475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="7" t="s">
         <v>157</v>
       </c>
@@ -31492,7 +31498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="7" t="s">
         <v>160</v>
       </c>
@@ -31515,7 +31521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="7" t="s">
         <v>163</v>
       </c>
@@ -31538,7 +31544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="7" t="s">
         <v>166</v>
       </c>
@@ -31561,7 +31567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="7" t="s">
         <v>1720</v>
       </c>
@@ -31582,7 +31588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="7" t="s">
         <v>135</v>
       </c>
@@ -31603,7 +31609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="7" t="s">
         <v>142</v>
       </c>
@@ -31626,7 +31632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="7" t="s">
         <v>145</v>
       </c>
@@ -31649,7 +31655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="7" t="s">
         <v>148</v>
       </c>
@@ -31693,7 +31699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="7" t="s">
         <v>154</v>
       </c>
@@ -31716,7 +31722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="7" t="s">
         <v>157</v>
       </c>
@@ -31739,7 +31745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="7" t="s">
         <v>160</v>
       </c>
@@ -31762,7 +31768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="7" t="s">
         <v>163</v>
       </c>
@@ -31785,7 +31791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="7" t="s">
         <v>166</v>
       </c>
@@ -31808,7 +31814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="7" t="s">
         <v>1723</v>
       </c>
@@ -31829,7 +31835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="7" t="s">
         <v>135</v>
       </c>
@@ -31850,7 +31856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="7" t="s">
         <v>142</v>
       </c>
@@ -31873,7 +31879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="7" t="s">
         <v>145</v>
       </c>
@@ -31896,7 +31902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="7" t="s">
         <v>148</v>
       </c>
@@ -31919,7 +31925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="7" t="s">
         <v>151</v>
       </c>
@@ -31940,7 +31946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="7" t="s">
         <v>154</v>
       </c>
@@ -31963,7 +31969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="7" t="s">
         <v>157</v>
       </c>
@@ -31986,7 +31992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="7" t="s">
         <v>160</v>
       </c>
@@ -32009,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="7" t="s">
         <v>163</v>
       </c>
@@ -32032,7 +32038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="7" t="s">
         <v>166</v>
       </c>
@@ -32055,7 +32061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="10" t="s">
         <v>1726</v>
       </c>
@@ -32076,7 +32082,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="7" t="s">
         <v>1728</v>
       </c>
@@ -32097,7 +32103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="7" t="s">
         <v>272</v>
       </c>
@@ -32120,7 +32126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="7" t="s">
         <v>275</v>
       </c>
@@ -32143,7 +32149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="7" t="s">
         <v>278</v>
       </c>
@@ -32166,7 +32172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="7" t="s">
         <v>281</v>
       </c>
@@ -32189,7 +32195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="7" t="s">
         <v>284</v>
       </c>
@@ -32212,7 +32218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="7" t="s">
         <v>135</v>
       </c>
@@ -32256,7 +32262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="7" t="s">
         <v>292</v>
       </c>
@@ -32279,7 +32285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="7" t="s">
         <v>296</v>
       </c>
@@ -32302,7 +32308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="7" t="s">
         <v>296</v>
       </c>
@@ -32325,7 +32331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="7" t="s">
         <v>123</v>
       </c>
@@ -32346,7 +32352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="7" t="s">
         <v>126</v>
       </c>
@@ -32369,7 +32375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="7" t="s">
         <v>305</v>
       </c>
@@ -32390,7 +32396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="7" t="s">
         <v>119</v>
       </c>
@@ -32413,7 +32419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="7" t="s">
         <v>310</v>
       </c>
@@ -32434,7 +32440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="7" t="s">
         <v>119</v>
       </c>
@@ -32457,7 +32463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="7" t="s">
         <v>1013</v>
       </c>
@@ -32478,7 +32484,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="7" t="s">
         <v>1747</v>
       </c>
@@ -32499,7 +32505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="7" t="s">
         <v>1749</v>
       </c>
@@ -32541,7 +32547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" s="7" t="s">
         <v>1226</v>
       </c>
@@ -32564,7 +32570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" s="7" t="s">
         <v>1754</v>
       </c>
@@ -32585,7 +32591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" s="7" t="s">
         <v>1757</v>
       </c>
@@ -32606,7 +32612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" s="7" t="s">
         <v>1759</v>
       </c>
@@ -32627,7 +32633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" s="7" t="s">
         <v>1202</v>
       </c>
@@ -32648,7 +32654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" s="7" t="s">
         <v>1196</v>
       </c>
@@ -32669,7 +32675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" s="7" t="s">
         <v>1763</v>
       </c>
@@ -32690,7 +32696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" s="7" t="s">
         <v>1765</v>
       </c>
@@ -32711,7 +32717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" s="7" t="s">
         <v>1767</v>
       </c>
@@ -32732,7 +32738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" s="7" t="s">
         <v>1765</v>
       </c>
@@ -32753,7 +32759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" s="7" t="s">
         <v>166</v>
       </c>
@@ -32774,7 +32780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064" s="7" t="s">
         <v>1771</v>
       </c>
@@ -32795,7 +32801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" s="7" t="s">
         <v>1471</v>
       </c>
@@ -32818,7 +32824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" s="7" t="s">
         <v>166</v>
       </c>
@@ -32841,7 +32847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" s="7" t="s">
         <v>1475</v>
       </c>
@@ -32862,7 +32868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" s="7" t="s">
         <v>1777</v>
       </c>
@@ -32883,7 +32889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069" s="7" t="s">
         <v>1477</v>
       </c>
@@ -32906,7 +32912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070" s="7" t="s">
         <v>1780</v>
       </c>
@@ -32927,7 +32933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" s="7" t="s">
         <v>1202</v>
       </c>
@@ -32948,7 +32954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" s="7" t="s">
         <v>1196</v>
       </c>
@@ -32969,7 +32975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" s="7" t="s">
         <v>1784</v>
       </c>
@@ -32990,7 +32996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33011,7 +33017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075" s="7" t="s">
         <v>1787</v>
       </c>
@@ -33032,7 +33038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33053,7 +33059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" s="7" t="s">
         <v>166</v>
       </c>
@@ -33074,7 +33080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" s="7" t="s">
         <v>1791</v>
       </c>
@@ -33095,7 +33101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" s="7" t="s">
         <v>1202</v>
       </c>
@@ -33116,7 +33122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" s="7" t="s">
         <v>1196</v>
       </c>
@@ -33137,7 +33143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33158,7 +33164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" s="7" t="s">
         <v>166</v>
       </c>
@@ -33452,7 +33458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1096" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1096" s="7" t="s">
         <v>1814</v>
       </c>
@@ -33473,7 +33479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" s="7" t="s">
         <v>1202</v>
       </c>
@@ -33494,7 +33500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1098" s="7" t="s">
         <v>1196</v>
       </c>
@@ -33515,7 +33521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1099" s="7" t="s">
         <v>1818</v>
       </c>
@@ -33536,7 +33542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33557,7 +33563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" s="7" t="s">
         <v>1821</v>
       </c>
@@ -33578,7 +33584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1102" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33599,7 +33605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1103" s="7" t="s">
         <v>166</v>
       </c>
@@ -33725,7 +33731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1109" s="7" t="s">
         <v>1831</v>
       </c>
@@ -33746,7 +33752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1110" s="7" t="s">
         <v>1202</v>
       </c>
@@ -33767,7 +33773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" s="7" t="s">
         <v>1196</v>
       </c>
@@ -33788,7 +33794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" s="7" t="s">
         <v>1765</v>
       </c>
@@ -33809,7 +33815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" s="7" t="s">
         <v>166</v>
       </c>
@@ -33830,7 +33836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114" s="7" t="s">
         <v>1480</v>
       </c>
@@ -33851,7 +33857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115" s="7" t="s">
         <v>1480</v>
       </c>
@@ -33872,7 +33878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1116" s="7" t="s">
         <v>1226</v>
       </c>
@@ -33895,7 +33901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" s="7" t="s">
         <v>1207</v>
       </c>
@@ -34757,7 +34763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1157" s="7" t="s">
         <v>1895</v>
       </c>
@@ -34778,7 +34784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1158" s="7" t="s">
         <v>1897</v>
       </c>
@@ -34799,7 +34805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" s="7" t="s">
         <v>1196</v>
       </c>
@@ -34820,7 +34826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1160" s="7" t="s">
         <v>1901</v>
       </c>
@@ -34839,7 +34845,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1161" s="7" t="s">
         <v>1903</v>
       </c>
@@ -34881,7 +34887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1163" s="7" t="s">
         <v>1907</v>
       </c>
@@ -34944,7 +34950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1166" s="7" t="s">
         <v>1913</v>
       </c>
@@ -34986,7 +34992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" s="7" t="s">
         <v>166</v>
       </c>
@@ -35028,7 +35034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" s="7" t="s">
         <v>1920</v>
       </c>
@@ -35049,7 +35055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171" s="7" t="s">
         <v>1922</v>
       </c>
@@ -35070,7 +35076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172" s="7" t="s">
         <v>971</v>
       </c>
@@ -35091,7 +35097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173" s="7" t="s">
         <v>1924</v>
       </c>
@@ -35112,7 +35118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1174" s="7" t="s">
         <v>1926</v>
       </c>
@@ -35133,7 +35139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175" s="7" t="s">
         <v>974</v>
       </c>
@@ -35154,7 +35160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1176" s="7" t="s">
         <v>1924</v>
       </c>
@@ -35175,7 +35181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177" s="7" t="s">
         <v>1926</v>
       </c>
@@ -35196,7 +35202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1178" s="7" t="s">
         <v>977</v>
       </c>
@@ -35217,7 +35223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1179" s="7" t="s">
         <v>1924</v>
       </c>
@@ -35238,7 +35244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180" s="7" t="s">
         <v>1926</v>
       </c>
@@ -35492,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1192" s="7" t="s">
         <v>1948</v>
       </c>
@@ -35513,7 +35519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1193" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1193" s="7" t="s">
         <v>1924</v>
       </c>
@@ -35534,7 +35540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1194" s="7" t="s">
         <v>1926</v>
       </c>
@@ -35891,7 +35897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1211" s="7" t="s">
         <v>1974</v>
       </c>
@@ -35912,7 +35918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1212" s="7" t="s">
         <v>142</v>
       </c>
@@ -35935,7 +35941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1213" s="7" t="s">
         <v>145</v>
       </c>
@@ -35958,7 +35964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1214" s="7" t="s">
         <v>148</v>
       </c>
@@ -36002,7 +36008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1216" s="7" t="s">
         <v>154</v>
       </c>
@@ -36025,7 +36031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1217" s="7" t="s">
         <v>157</v>
       </c>
@@ -36048,7 +36054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1218" s="7" t="s">
         <v>160</v>
       </c>
@@ -36071,7 +36077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1219" s="7" t="s">
         <v>163</v>
       </c>
@@ -36094,7 +36100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1220" s="7" t="s">
         <v>166</v>
       </c>
@@ -36117,7 +36123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1221" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1221" s="7" t="s">
         <v>1985</v>
       </c>
@@ -36138,7 +36144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1222" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1222" s="7" t="s">
         <v>1987</v>
       </c>
@@ -36159,7 +36165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1223" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1223" s="7" t="s">
         <v>1924</v>
       </c>
@@ -36180,7 +36186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1224" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1224" s="7" t="s">
         <v>1926</v>
       </c>
@@ -36201,7 +36207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1225" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1225" s="7" t="s">
         <v>1991</v>
       </c>
@@ -36222,7 +36228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1226" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1226" s="7" t="s">
         <v>1993</v>
       </c>
@@ -36243,7 +36249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1227" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1227" s="7" t="s">
         <v>1924</v>
       </c>
@@ -36264,7 +36270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1228" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1228" s="7" t="s">
         <v>1926</v>
       </c>
@@ -36285,7 +36291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1229" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1229" s="7" t="s">
         <v>1997</v>
       </c>
@@ -36306,7 +36312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1230" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1230" s="7" t="s">
         <v>1999</v>
       </c>
@@ -36327,7 +36333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1231" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1231" s="7" t="s">
         <v>1196</v>
       </c>
@@ -36348,7 +36354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1232" s="7" t="s">
         <v>1765</v>
       </c>
@@ -36369,7 +36375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1233" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1233" s="7" t="s">
         <v>1202</v>
       </c>
@@ -36390,7 +36396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1234" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1234" s="7" t="s">
         <v>166</v>
       </c>
@@ -36411,7 +36417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1235" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1235" s="7" t="s">
         <v>2005</v>
       </c>
@@ -36432,7 +36438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1236" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1236" s="7" t="s">
         <v>1196</v>
       </c>
@@ -36453,7 +36459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1237" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1237" s="7" t="s">
         <v>1202</v>
       </c>
@@ -36474,7 +36480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1238" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1238" s="7" t="s">
         <v>2009</v>
       </c>
@@ -36495,7 +36501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1239" s="7" t="s">
         <v>2011</v>
       </c>
@@ -36516,7 +36522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1240" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1240" s="7" t="s">
         <v>1765</v>
       </c>
@@ -36537,7 +36543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1241" s="7" t="s">
         <v>2014</v>
       </c>
@@ -36558,7 +36564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1242" s="7" t="s">
         <v>2011</v>
       </c>
@@ -36579,7 +36585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1243" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1243" s="7" t="s">
         <v>1765</v>
       </c>
@@ -36600,7 +36606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1244" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1244" s="7" t="s">
         <v>166</v>
       </c>
@@ -36621,7 +36627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1245" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1245" s="7" t="s">
         <v>2019</v>
       </c>
@@ -36642,7 +36648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1246" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1246" s="7" t="s">
         <v>1924</v>
       </c>
@@ -36663,7 +36669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1247" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1247" s="7" t="s">
         <v>1926</v>
       </c>
@@ -36998,7 +37004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1262" s="7" t="s">
         <v>2057</v>
       </c>
@@ -37019,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1263" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1263" s="7" t="s">
         <v>2059</v>
       </c>
@@ -37040,7 +37046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1264" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1264" s="7" t="s">
         <v>142</v>
       </c>
@@ -37063,7 +37069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1265" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1265" s="7" t="s">
         <v>145</v>
       </c>
@@ -37086,7 +37092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1266" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1266" s="7" t="s">
         <v>148</v>
       </c>
@@ -37109,7 +37115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1267" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1267" s="7" t="s">
         <v>151</v>
       </c>
@@ -37130,7 +37136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1268" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1268" s="7" t="s">
         <v>154</v>
       </c>
@@ -37153,7 +37159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1269" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1269" s="7" t="s">
         <v>157</v>
       </c>
@@ -37176,7 +37182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1270" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1270" s="7" t="s">
         <v>160</v>
       </c>
@@ -37199,7 +37205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1271" s="7" t="s">
         <v>163</v>
       </c>
@@ -37222,7 +37228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1272" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1272" s="7" t="s">
         <v>166</v>
       </c>
@@ -37245,7 +37251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1273" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1273" s="7" t="s">
         <v>2071</v>
       </c>
@@ -37266,7 +37272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1274" s="7" t="s">
         <v>272</v>
       </c>
@@ -37289,7 +37295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1275" s="7" t="s">
         <v>275</v>
       </c>
@@ -37312,7 +37318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1276" s="7" t="s">
         <v>278</v>
       </c>
@@ -37335,7 +37341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1277" s="7" t="s">
         <v>281</v>
       </c>
@@ -37358,7 +37364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1278" s="7" t="s">
         <v>284</v>
       </c>
@@ -37379,7 +37385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1279" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1279" s="7" t="s">
         <v>2059</v>
       </c>
@@ -37402,7 +37408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1280" s="7" t="s">
         <v>142</v>
       </c>
@@ -37425,7 +37431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1281" s="7" t="s">
         <v>145</v>
       </c>
@@ -37448,7 +37454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1282" s="7" t="s">
         <v>148</v>
       </c>
@@ -37471,7 +37477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1283" s="7" t="s">
         <v>151</v>
       </c>
@@ -37494,7 +37500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1284" s="7" t="s">
         <v>154</v>
       </c>
@@ -37517,7 +37523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1285" s="7" t="s">
         <v>157</v>
       </c>
@@ -37540,7 +37546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1286" s="7" t="s">
         <v>160</v>
       </c>
@@ -37563,7 +37569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1287" s="7" t="s">
         <v>163</v>
       </c>
@@ -37586,7 +37592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1288" s="7" t="s">
         <v>166</v>
       </c>
@@ -37609,7 +37615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1289" s="7" t="s">
         <v>289</v>
       </c>
@@ -37630,7 +37636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1290" s="7" t="s">
         <v>292</v>
       </c>
@@ -37653,7 +37659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1291" s="7" t="s">
         <v>296</v>
       </c>
@@ -37676,7 +37682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1292" s="7" t="s">
         <v>296</v>
       </c>
@@ -37699,7 +37705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1293" s="7" t="s">
         <v>123</v>
       </c>
@@ -37722,7 +37728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1294" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1294" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1294" s="7" t="s">
         <v>126</v>
       </c>
@@ -37745,7 +37751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1295" s="7" t="s">
         <v>305</v>
       </c>
@@ -37768,7 +37774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1296" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1296" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1296" s="7" t="s">
         <v>119</v>
       </c>
@@ -37791,7 +37797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1297" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1297" s="7" t="s">
         <v>310</v>
       </c>
@@ -37814,7 +37820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1298" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1298" s="7" t="s">
         <v>119</v>
       </c>
@@ -37837,7 +37843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1299" s="7" t="s">
         <v>214</v>
       </c>
@@ -37858,7 +37864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1300" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1300" s="7" t="s">
         <v>1379</v>
       </c>
@@ -37879,7 +37885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1301" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1301" s="7" t="s">
         <v>1382</v>
       </c>
@@ -37902,7 +37908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1302" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1302" s="7" t="s">
         <v>1385</v>
       </c>
@@ -37925,7 +37931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1303" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1303" s="7" t="s">
         <v>378</v>
       </c>
@@ -37948,7 +37954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1304" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1304" s="7" t="s">
         <v>214</v>
       </c>
@@ -37971,7 +37977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1305" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1305" s="7" t="s">
         <v>214</v>
       </c>
@@ -37994,7 +38000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1306" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1306" s="7" t="s">
         <v>378</v>
       </c>
@@ -38017,7 +38023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1307" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1307" s="7" t="s">
         <v>1396</v>
       </c>
@@ -38040,7 +38046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1308" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1308" s="7" t="s">
         <v>1399</v>
       </c>
@@ -38063,7 +38069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1309" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1309" s="7" t="s">
         <v>1402</v>
       </c>
@@ -38086,7 +38092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1310" s="7" t="s">
         <v>1402</v>
       </c>
@@ -38109,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1311" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1311" s="7" t="s">
         <v>378</v>
       </c>
@@ -38132,7 +38138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1312" s="7" t="s">
         <v>1409</v>
       </c>
@@ -38155,7 +38161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1313" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1313" s="7" t="s">
         <v>166</v>
       </c>
@@ -38178,7 +38184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1314" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1314" s="7" t="s">
         <v>2113</v>
       </c>
@@ -38199,7 +38205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1315" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1315" s="7" t="s">
         <v>126</v>
       </c>
@@ -38222,7 +38228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1316" s="7" t="s">
         <v>2116</v>
       </c>
@@ -38241,7 +38247,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="1317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1317" s="7" t="s">
         <v>2118</v>
       </c>
@@ -38262,7 +38268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1318" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1318" s="7" t="s">
         <v>2120</v>
       </c>
@@ -38285,7 +38291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1319" s="7" t="s">
         <v>2124</v>
       </c>
@@ -38306,7 +38312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1320" s="7" t="s">
         <v>2127</v>
       </c>
@@ -38329,7 +38335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1321" s="7" t="s">
         <v>2130</v>
       </c>
@@ -38352,7 +38358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1322" s="7" t="s">
         <v>166</v>
       </c>
@@ -38375,7 +38381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1323" s="7" t="s">
         <v>2135</v>
       </c>
@@ -38398,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1324" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1324" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1324" s="7" t="s">
         <v>2138</v>
       </c>
@@ -38419,7 +38425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1325" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1325" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1325" s="7" t="s">
         <v>2141</v>
       </c>
@@ -38442,7 +38448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1326" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1326" s="7" t="s">
         <v>2144</v>
       </c>
@@ -38465,7 +38471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1327" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1327" s="7" t="s">
         <v>2147</v>
       </c>
@@ -38488,7 +38494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1328" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1328" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1328" s="7" t="s">
         <v>2151</v>
       </c>
@@ -38511,7 +38517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1329" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1329" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1329" s="7" t="s">
         <v>296</v>
       </c>
@@ -38534,7 +38540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1330" s="7" t="s">
         <v>2157</v>
       </c>
@@ -38557,7 +38563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1331" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1331" s="7" t="s">
         <v>2161</v>
       </c>
@@ -38580,7 +38586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1332" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1332" s="7" t="s">
         <v>2164</v>
       </c>
@@ -38626,7 +38632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1334" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1334" s="7" t="s">
         <v>625</v>
       </c>
@@ -38649,7 +38655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1335" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1335" s="7" t="s">
         <v>284</v>
       </c>
@@ -38672,7 +38678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1336" s="7" t="s">
         <v>135</v>
       </c>
@@ -38695,7 +38701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1337" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1337" s="7" t="s">
         <v>166</v>
       </c>
@@ -38718,7 +38724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1338" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1338" s="7" t="s">
         <v>1517</v>
       </c>
@@ -38741,7 +38747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1339" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1339" s="7" t="s">
         <v>2180</v>
       </c>
@@ -38764,7 +38770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1340" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1340" s="7" t="s">
         <v>123</v>
       </c>
@@ -38787,7 +38793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1341" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1341" s="7" t="s">
         <v>126</v>
       </c>
@@ -38810,7 +38816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1342" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1342" s="7" t="s">
         <v>119</v>
       </c>
@@ -38833,7 +38839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1343" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1343" s="7" t="s">
         <v>119</v>
       </c>
@@ -38902,7 +38908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1346" s="7" t="s">
         <v>166</v>
       </c>
@@ -38925,7 +38931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1347" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1347" s="7" t="s">
         <v>2200</v>
       </c>
@@ -38946,7 +38952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1348" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1348" s="7" t="s">
         <v>2203</v>
       </c>
@@ -38969,7 +38975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1349" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1349" s="7" t="s">
         <v>2147</v>
       </c>
@@ -38992,7 +38998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1350" s="7" t="s">
         <v>2147</v>
       </c>
@@ -39015,7 +39021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1351" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1351" s="7" t="s">
         <v>2210</v>
       </c>
@@ -39038,7 +39044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1352" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1352" s="7" t="s">
         <v>2213</v>
       </c>
@@ -39061,7 +39067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1353" s="7" t="s">
         <v>2216</v>
       </c>
@@ -39130,7 +39136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1356" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1356" s="7" t="s">
         <v>166</v>
       </c>
@@ -39153,7 +39159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1357" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1357" s="7" t="s">
         <v>946</v>
       </c>
@@ -39775,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1385" s="7" t="s">
         <v>135</v>
       </c>
@@ -39890,7 +39896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1390" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1390" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1390" s="7" t="s">
         <v>126</v>
       </c>
@@ -39936,7 +39942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1392" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1392" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1392" s="7" t="s">
         <v>119</v>
       </c>
@@ -40436,7 +40442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1414" s="7" t="s">
         <v>135</v>
       </c>
@@ -40551,7 +40557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1419" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1419" s="7" t="s">
         <v>126</v>
       </c>
@@ -40597,7 +40603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1421" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1421" s="7" t="s">
         <v>119</v>
       </c>
@@ -41693,7 +41699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1471" s="7" t="s">
         <v>214</v>
       </c>
@@ -41714,7 +41720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1472" s="7" t="s">
         <v>950</v>
       </c>
@@ -41737,7 +41743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1473" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1473" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1473" s="7" t="s">
         <v>2120</v>
       </c>
@@ -41760,7 +41766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1474" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1474" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1474" s="8" t="s">
         <v>2423</v>
       </c>
